--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/Xining_2200m_4200m_VO2_summary.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/Xining_2200m_4200m_VO2_summary.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\Tatum‘s Group\Tatum_Group_Training\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32B3995-8FE3-4F1E-873F-E22C34E4535A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2200m" sheetId="3" r:id="rId1"/>
@@ -211,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -301,6 +307,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -627,7 +636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -644,7 +653,7 @@
     <col min="12" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -657,7 +666,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -689,13 +698,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +733,7 @@
         <v>14.92</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>42</v>
@@ -751,7 +760,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>43</v>
@@ -778,10 +787,10 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -810,7 +819,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>42</v>
@@ -837,7 +846,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>43</v>
@@ -864,10 +873,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -896,7 +905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>42</v>
@@ -923,7 +932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>43</v>
@@ -950,10 +959,10 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -982,7 +991,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>42</v>
@@ -1009,7 +1018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>44</v>
@@ -1036,7 +1045,7 @@
         <v>25.67</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>43</v>
@@ -1063,10 +1072,10 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1074,22 +1083,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1118,7 +1127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>42</v>
@@ -1145,7 +1154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>43</v>
@@ -1172,10 +1181,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1204,7 +1213,7 @@
         <v>24.17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>42</v>
@@ -1231,7 +1240,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>43</v>
@@ -1258,10 +1267,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>7</v>
       </c>
@@ -1290,7 +1299,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>42</v>
@@ -1317,7 +1326,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>44</v>
@@ -1344,7 +1353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
         <v>43</v>
@@ -1371,10 +1380,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -1403,7 +1412,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>42</v>
@@ -1433,7 +1442,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
         <v>43</v>
@@ -1460,10 +1469,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -1492,7 +1501,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
         <v>42</v>
@@ -1519,7 +1528,7 @@
         <v>25.33</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
         <v>43</v>
@@ -1546,10 +1555,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -1578,7 +1587,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
         <v>42</v>
@@ -1605,7 +1614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
         <v>44</v>
@@ -1632,7 +1641,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
         <v>43</v>
@@ -1659,10 +1668,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -1691,7 +1700,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
         <v>42</v>
@@ -1718,7 +1727,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
         <v>44</v>
@@ -1745,7 +1754,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
         <v>43</v>
@@ -1772,10 +1781,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
@@ -1804,7 +1813,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
         <v>42</v>
@@ -1831,7 +1840,7 @@
         <v>19.670000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2" t="s">
         <v>44</v>
@@ -1858,7 +1867,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>43</v>
@@ -1885,10 +1894,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -1917,7 +1926,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
         <v>42</v>
@@ -1944,7 +1953,7 @@
         <v>22.67</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
         <v>44</v>
@@ -1971,7 +1980,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
         <v>47</v>
@@ -2001,10 +2010,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>14</v>
       </c>
@@ -2033,7 +2042,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
         <v>42</v>
@@ -2060,7 +2069,7 @@
         <v>9.33</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
         <v>44</v>
@@ -2087,7 +2096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="2" t="s">
         <v>43</v>
@@ -2114,10 +2123,10 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>15</v>
       </c>
@@ -2146,7 +2155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="2" t="s">
         <v>42</v>
@@ -2173,7 +2182,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
         <v>44</v>
@@ -2200,7 +2209,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
         <v>43</v>
@@ -2227,10 +2236,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>16</v>
       </c>
@@ -2259,7 +2268,7 @@
         <v>21.43</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
         <v>42</v>
@@ -2286,7 +2295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="2" t="s">
         <v>43</v>
@@ -2313,10 +2322,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>17</v>
       </c>
@@ -2345,7 +2354,7 @@
         <v>25.71</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="2" t="s">
         <v>42</v>
@@ -2372,7 +2381,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
         <v>44</v>
@@ -2399,7 +2408,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="2" t="s">
         <v>43</v>
@@ -2426,10 +2435,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>18</v>
       </c>
@@ -2458,7 +2467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="2" t="s">
         <v>42</v>
@@ -2485,7 +2494,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="2" t="s">
         <v>43</v>
@@ -2512,10 +2521,10 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>19</v>
       </c>
@@ -2544,7 +2553,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="2" t="s">
         <v>42</v>
@@ -2571,7 +2580,7 @@
         <v>16.670000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="2" t="s">
         <v>44</v>
@@ -2598,7 +2607,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="2" t="s">
         <v>47</v>
@@ -2625,7 +2634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="2" t="s">
         <v>43</v>
@@ -2652,10 +2661,10 @@
         <v>16.329999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
@@ -2684,7 +2693,7 @@
         <v>13.86</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="2" t="s">
         <v>42</v>
@@ -2711,7 +2720,7 @@
         <v>17.329999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="2" t="s">
         <v>44</v>
@@ -2738,7 +2747,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="2" t="s">
         <v>43</v>
@@ -2765,10 +2774,10 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
     </row>
-    <row r="101" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>21</v>
       </c>
@@ -2797,7 +2806,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="2" t="s">
         <v>42</v>
@@ -2824,7 +2833,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="2" t="s">
         <v>43</v>
@@ -2851,10 +2860,10 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
     </row>
-    <row r="105" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>22</v>
       </c>
@@ -2883,7 +2892,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="2" t="s">
         <v>42</v>
@@ -2910,7 +2919,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="2" t="s">
         <v>44</v>
@@ -2937,7 +2946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="2" t="s">
         <v>43</v>
@@ -2964,10 +2973,10 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
     </row>
-    <row r="110" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>23</v>
       </c>
@@ -2996,7 +3005,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="2" t="s">
         <v>42</v>
@@ -3023,7 +3032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="2" t="s">
         <v>44</v>
@@ -3050,7 +3059,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="2" t="s">
         <v>43</v>
@@ -3077,10 +3086,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
     </row>
-    <row r="115" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>24</v>
       </c>
@@ -3109,7 +3118,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="2" t="s">
         <v>42</v>
@@ -3136,7 +3145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="2" t="s">
         <v>44</v>
@@ -3163,7 +3172,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="2" t="s">
         <v>43</v>
@@ -3190,10 +3199,10 @@
         <v>23.67</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
     </row>
-    <row r="120" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>25</v>
       </c>
@@ -3222,7 +3231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="2" t="s">
         <v>42</v>
@@ -3249,7 +3258,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="2" t="s">
         <v>44</v>
@@ -3276,7 +3285,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="2" t="s">
         <v>43</v>
@@ -3303,10 +3312,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
     </row>
-    <row r="125" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>26</v>
       </c>
@@ -3335,7 +3344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="2" t="s">
         <v>42</v>
@@ -3362,7 +3371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="2" t="s">
         <v>44</v>
@@ -3389,7 +3398,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="2" t="s">
         <v>43</v>
@@ -3416,10 +3425,10 @@
         <v>27.33</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>27</v>
       </c>
@@ -3448,7 +3457,7 @@
         <v>17.329999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="2" t="s">
         <v>42</v>
@@ -3475,7 +3484,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="2" t="s">
         <v>43</v>
@@ -3502,10 +3511,10 @@
         <v>25.33</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>28</v>
       </c>
@@ -3534,7 +3543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="2" t="s">
         <v>42</v>
@@ -3561,7 +3570,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="2" t="s">
         <v>44</v>
@@ -3588,7 +3597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="2" t="s">
         <v>43</v>
@@ -3615,10 +3624,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
     </row>
-    <row r="139" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>29</v>
       </c>
@@ -3647,7 +3656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="2" t="s">
         <v>42</v>
@@ -3674,7 +3683,7 @@
         <v>23.33</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="2" t="s">
         <v>44</v>
@@ -3701,7 +3710,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="2" t="s">
         <v>43</v>
@@ -3728,10 +3737,10 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
     </row>
-    <row r="144" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>30</v>
       </c>
@@ -3760,7 +3769,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="145" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="2" t="s">
         <v>42</v>
@@ -3787,7 +3796,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="146" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="2" t="s">
         <v>43</v>
@@ -3814,10 +3823,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
     </row>
-    <row r="148" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>31</v>
       </c>
@@ -3846,7 +3855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="2" t="s">
         <v>42</v>
@@ -3873,7 +3882,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="150" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="2" t="s">
         <v>44</v>
@@ -3903,10 +3912,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>32</v>
       </c>
@@ -3935,7 +3944,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="153" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="2" t="s">
         <v>42</v>
@@ -3962,7 +3971,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="154" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="2" t="s">
         <v>44</v>
@@ -3989,7 +3998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="2" t="s">
         <v>43</v>
@@ -4016,10 +4025,10 @@
         <v>22.75</v>
       </c>
     </row>
-    <row r="156" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>51</v>
       </c>
@@ -4048,7 +4057,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="158" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="2" t="s">
         <v>42</v>
@@ -4075,7 +4084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="2" t="s">
         <v>44</v>
@@ -4102,7 +4111,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="160" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="2" t="s">
         <v>43</v>
@@ -4129,10 +4138,10 @@
         <v>27.67</v>
       </c>
     </row>
-    <row r="161" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
     </row>
-    <row r="162" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>52</v>
       </c>
@@ -4161,7 +4170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="2" t="s">
         <v>42</v>
@@ -4188,7 +4197,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="2" t="s">
         <v>43</v>
@@ -4215,10 +4224,10 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="165" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
     </row>
-    <row r="166" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>53</v>
       </c>
@@ -4247,10 +4256,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
     </row>
-    <row r="168" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>55</v>
       </c>
@@ -4279,8 +4288,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B169" s="2" t="s">
         <v>42</v>
       </c>
@@ -4306,8 +4314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B170" s="2" t="s">
         <v>43</v>
       </c>
@@ -4345,12 +4352,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
